--- a/app/src/main/assets/seoul_important_regions.xlsx
+++ b/app/src/main/assets/seoul_important_regions.xlsx
@@ -1372,7 +1372,7 @@
       <name val="Arimo"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +1382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1414,28 +1420,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,19 +1450,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1465,22 +1471,22 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,43 +1506,43 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,6 +1563,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -1756,17 +1763,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1793,10 +1800,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2035,12 +2042,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2317,7 +2324,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2344,10 +2351,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2912,10 +2919,10 @@
         <v>27</v>
       </c>
       <c r="E8" s="11">
-        <v>37.5503</v>
+        <v>37.554371</v>
       </c>
       <c r="F8" s="12">
-        <v>126.9208</v>
+        <v>126.922754</v>
       </c>
       <c r="G8" t="s" s="5">
         <v>28</v>
@@ -4928,10 +4935,10 @@
         <v>173</v>
       </c>
       <c r="E56" s="11">
-        <v>37.5503</v>
+        <v>37.556944</v>
       </c>
       <c r="F56" s="12">
-        <v>126.9208</v>
+        <v>126.923917</v>
       </c>
       <c r="G56" t="s" s="5">
         <v>174</v>
